--- a/data/evaluation/evaluation_Center_Autumn_Persimmons.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Persimmons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1857.181142927585</v>
+        <v>1881.997046831374</v>
       </c>
       <c r="C4" t="n">
-        <v>6322982.551774835</v>
+        <v>6499449.688346946</v>
       </c>
       <c r="D4" t="n">
-        <v>2514.554145723419</v>
+        <v>2549.401829517455</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3537897890723831</v>
+        <v>-0.3915724977295669</v>
       </c>
     </row>
     <row r="5">
